--- a/biology/Botanique/Parc_du_Brûlet/Parc_du_Brûlet.xlsx
+++ b/biology/Botanique/Parc_du_Brûlet/Parc_du_Brûlet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_Br%C3%BBlet</t>
+          <t>Parc_du_Brûlet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc du Brûlet est un parc urbain de Sainte-Foy-lès-Lyon, commune de l'agglomération lyonnaise. C’est le plus grand espace de verdure de la commune.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_Br%C3%BBlet</t>
+          <t>Parc_du_Brûlet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Délimité par la rue du Brûlet à l'ouest, la rue de Chavril et la rue Nicolas-Berthet au nord, et la rue Georges-Clemenceau à l'est, il s'inscrit grossièrement dans un triangle, base au nord et sommet au sud. Sa superficie est d'environ 4 hectares. Il culmine à 305 mètres d'altitude.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_du_Br%C3%BBlet</t>
+          <t>Parc_du_Brûlet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est en accès libre. Il est desservi par la ligne   des Transports en commun lyonnais.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_du_Br%C3%BBlet</t>
+          <t>Parc_du_Brûlet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début du XIXe siècle, les lieux appartenaient à une famille bourgeoise et étaient aménagés en jardin à l'anglaise. Ils furent divisés en deux parties, le parc actuel et un terrain où se trouve actuellement un ensemble résidentiel, la « Calmeraie ». La propriété du parc est actuellement partagée entre les villes de Lyon et de Sainte-Foy-lès-Lyon, et le Grand Lyon. Depuis juin 2010, une association[1] s’est constituée dans le but de préserver et de mettre en valeur le site.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du XIXe siècle, les lieux appartenaient à une famille bourgeoise et étaient aménagés en jardin à l'anglaise. Ils furent divisés en deux parties, le parc actuel et un terrain où se trouve actuellement un ensemble résidentiel, la « Calmeraie ». La propriété du parc est actuellement partagée entre les villes de Lyon et de Sainte-Foy-lès-Lyon, et le Grand Lyon. Depuis juin 2010, une association s’est constituée dans le but de préserver et de mettre en valeur le site.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_du_Br%C3%BBlet</t>
+          <t>Parc_du_Brûlet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Essences</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le parc comporte quelques essences remarquables, parmi lesquelles:
 l'amandier de Méditerranée,
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parc_du_Br%C3%BBlet</t>
+          <t>Parc_du_Brûlet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Curiosités</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc offre une vue panoramique sur la ville de Lyon et les Alpes, à l'est, ainsi que sur les Monts du Lyonnais, à l'ouest.
 Il comporte, au nord, des vestiges de l'aqueduc romain du Gier, l'un des quatre aqueducs qui desservaient Lugdunum; on accède par un petit escalier à un tunnel dont l'entrée est condamnée par une grille; ces vestiges constituent la partie visible d'un canal souterrain qui traverse le parc.
